--- a/data/trans_dic/P30_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P30_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume fruta diariamente</t>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,12%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12,34%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,35; 32,14</t>
+          <t>7,21; 19,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 25,86</t>
+          <t>9,03; 18,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,84; 19,31</t>
+          <t>10,16; 19,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,87; 32,92</t>
+          <t>8,7; 24,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 19,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 18,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 13,57</t>
+          <t>10,13; 22,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 25,31</t>
+          <t>11,19; 19,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 23,95</t>
+          <t>7,89; 14,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 19,55</t>
+          <t>11,18; 28,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 14,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,36; 26,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 18,76</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 17,89</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9,95; 15,1</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 24,3</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>24,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>26,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>23,54%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,51; 27,46</t>
+          <t>19,54; 29,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,06; 31,29</t>
+          <t>22,1; 31,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,59; 31,28</t>
+          <t>22,31; 31,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,4; 32,27</t>
+          <t>20,84; 32,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,86; 25,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,63; 29,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,54; 25,47</t>
+          <t>17,15; 27,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 33,61</t>
+          <t>21,47; 29,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,86; 25,5</t>
+          <t>18,57; 26,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,53; 28,98</t>
+          <t>16,52; 25,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,67; 27,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,29; 31,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>19,48; 26,89</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 28,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21,39; 27,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>20,0; 27,61</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>24,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>18,25%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>24,84%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>21,97%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 23,61</t>
+          <t>16,84; 29,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 25,16</t>
+          <t>17,42; 27,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 25,55</t>
+          <t>17,1; 25,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,34; 29,85</t>
+          <t>19,23; 31,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 20,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,19</t>
+          <t>9,26; 17,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,28; 32,19</t>
+          <t>14,57; 21,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,07; 19,1</t>
+          <t>12,67; 18,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 22,02</t>
+          <t>15,35; 23,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 20,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 28,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 21,7</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,81; 22,61</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 20,91</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18,48; 26,27</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,37; 24,2</t>
+          <t>15,39; 23,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,41; 25,72</t>
+          <t>18,1; 29,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,52; 25,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,22; 29,37</t>
+          <t>23,7; 34,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,23; 19,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,97</t>
+          <t>14,38; 20,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,67; 28,26</t>
+          <t>14,28; 22,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,33; 21,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 23,14</t>
+          <t>16,89; 25,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,86; 21,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,76; 28,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 21,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17,35; 24,31</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>21,55; 28,82</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,35%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22,23%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 23,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19,96; 24,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19,55; 25,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22,2; 28,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 19,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,96; 21,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 19,46</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17,5; 22,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 20,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 22,84</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 21,39</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 24,54</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>40878</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>69584</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>104020</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>70910</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>65070</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>97091</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96382</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>111468</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>105948</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>166675</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>200402</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>182378</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24454; 64485</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>47241; 94450</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>73620; 137918</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>38900; 108913</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42702; 93528</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>71004; 124770</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>70912; 132023</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71152; 183277</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>77316; 142779</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>132560; 207210</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>161605; 245234</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>130742; 263459</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>224217</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>316260</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>430351</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>280605</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>216183</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>308833</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>330941</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>225374</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>440400</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>625093</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>761292</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>505979</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>181703; 276415</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>265740; 375878</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>361357; 505804</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>223060; 346211</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>171516; 270340</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>264427; 363436</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>280030; 397174</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>178215; 276872</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>376000; 518865</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>549706; 698196</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>668928; 846933</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>429902; 593346</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>160006</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>183071</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>229535</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>207155</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>100317</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>169284</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>181786</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>171784</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>260323</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>352354</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>411321</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>378939</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>120536; 210868</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>147301; 229131</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>186528; 280905</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>159772; 264344</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>71204; 133838</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>137244; 205957</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>147450; 219441</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>137189; 212809</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>210667; 322125</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>300504; 404084</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>357489; 471464</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>318734; 453106</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>278735</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>197553</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>311466</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>244882</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>138937</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>204589</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>523617</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>336490</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>516054</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>223927; 342126</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>155285; 251273</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>259735; 374608</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>201401; 292627</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>109015; 172008</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>166023; 248164</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>454919; 616972</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>281182; 394124</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>448045; 599095</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>509.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>703836</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>766467</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>763906</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>870136</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>626453</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>714145</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>609108</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>713214</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1330288</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1480613</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1373015</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1583351</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>618086; 798804</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>684378; 850211</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>671557; 859769</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>764788; 986536</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>550318; 708090</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>641317; 784584</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>541432; 694596</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>628554; 810638</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1207809; 1457062</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1371787; 1598951</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1255371; 1498781</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1451760; 1726474</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
